--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAECC61-7A2E-44CE-A44C-698FA42595C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0006D6E-06CA-45F8-BD6E-5D15B94D36C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -262,6 +262,36 @@
       </rPr>
       <t>  • 5</t>
     </r>
+  </si>
+  <si>
+    <t>개 같은 것들 2020</t>
+  </si>
+  <si>
+    <t>누군가 있다 2017</t>
+  </si>
+  <si>
+    <t>레드벨트 2008</t>
+  </si>
+  <si>
+    <t>레이크 2017</t>
+  </si>
+  <si>
+    <t>논스톱 2014</t>
+  </si>
+  <si>
+    <t>라비앙 로즈 2007</t>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -628,10 +658,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D45"/>
+  <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -639,6 +670,17 @@
     <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:4">
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="2" spans="2:4">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -890,6 +932,57 @@
     <row r="45" spans="2:2">
       <c r="B45" s="2" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -950,5 +1043,6 @@
     <hyperlink ref="B9" r:id="rId5" display="https://chocolate0099.blogspot.com/2020/03/5.html" xr:uid="{10314894-B72B-4D21-B262-7DFE6CADF430}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0006D6E-06CA-45F8-BD6E-5D15B94D36C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FEEE6-B166-4AAF-8CD8-07E45C38FA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -292,6 +292,31 @@
   <si>
     <t>다운</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.naver.com/firstdb/221105223123</t>
+  </si>
+  <si>
+    <t>오늘의 추천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 레이싱 불타는 서킷 2020</t>
+  </si>
+  <si>
+    <t>소울 2020</t>
+  </si>
+  <si>
+    <t>내 남자는 바람둥이 2007</t>
+  </si>
+  <si>
+    <t>제니스 웨딩 2015</t>
+  </si>
+  <si>
+    <t>월드 오브 투모로우 에피소드 투 더 버든 오브 아더 피플스 소츠 2017</t>
+  </si>
+  <si>
+    <t>사랑의 노예 2016</t>
   </si>
 </sst>
 </file>
@@ -366,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,6 +401,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -658,11 +687,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D55"/>
+  <dimension ref="B1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -985,6 +1014,46 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="2:3">
+      <c r="B56" s="5">
+        <v>44201</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3">
+      <c r="B57" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3">
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3">
+      <c r="B59" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3">
+      <c r="B60" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3">
+      <c r="B61" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3">
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -994,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD5ED5B-4DB2-4DE2-B71A-0B875DFE35C7}">
-  <dimension ref="B5:B12"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1005,6 +1074,16 @@
     <col min="2" max="2" width="74" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="5" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>48</v>
@@ -1041,8 +1120,9 @@
     <hyperlink ref="B7" r:id="rId3" display="https://chocolate0099.blogspot.com/2020/03/3.html" xr:uid="{E691056C-2897-4114-AC73-C5A8EB67D03B}"/>
     <hyperlink ref="B8" r:id="rId4" display="https://chocolate0099.blogspot.com/2020/03/4.html" xr:uid="{C6F4A05A-5E5A-4AC3-BF7A-F69DC6D36849}"/>
     <hyperlink ref="B9" r:id="rId5" display="https://chocolate0099.blogspot.com/2020/03/5.html" xr:uid="{10314894-B72B-4D21-B262-7DFE6CADF430}"/>
+    <hyperlink ref="B3" r:id="rId6" xr:uid="{79CF119C-50E6-458C-9198-C3F18C9A46B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
 </file>
--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28FEEE6-B166-4AAF-8CD8-07E45C38FA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A999DBD-660A-4901-A125-721B2C36AD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="경로" sheetId="2" r:id="rId2"/>
+    <sheet name="넷플렉스" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -317,6 +318,22 @@
   </si>
   <si>
     <t>사랑의 노예 2016</t>
+  </si>
+  <si>
+    <t>화이트 타이걸</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>더블 파파</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피스트 파이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -391,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -406,6 +423,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -689,7 +707,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
@@ -1125,4 +1143,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0A05D4-0D72-4D22-9AFA-DD8A569AB813}">
+  <dimension ref="B3:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44218</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="6">
+        <v>44228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A999DBD-660A-4901-A125-721B2C36AD8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7F933-C842-40D6-A8D5-EEADB658B12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -334,6 +334,27 @@
   <si>
     <t>피스트 파이트</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐도우 인 더 클라우드 2020</t>
+  </si>
+  <si>
+    <t>그물 2016</t>
+  </si>
+  <si>
+    <t>붉은 날개 플라밍고의 비밀 2008</t>
+  </si>
+  <si>
+    <t>몬스터즈 오브 맨 2020</t>
+  </si>
+  <si>
+    <t>무게 2012</t>
+  </si>
+  <si>
+    <t>바이트 2015</t>
+  </si>
+  <si>
+    <t>데드 바이 데이라이트 2016</t>
   </si>
 </sst>
 </file>
@@ -705,11 +726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D63"/>
+  <dimension ref="B1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1070,6 +1091,46 @@
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1145,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1149,7 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0A05D4-0D72-4D22-9AFA-DD8A569AB813}">
   <dimension ref="B3:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1189,5 +1250,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BOOK\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA7F933-C842-40D6-A8D5-EEADB658B12B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7994C7-7210-447C-B392-288D22DE6365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -355,6 +355,28 @@
   </si>
   <si>
     <t>데드 바이 데이라이트 2016</t>
+  </si>
+  <si>
+    <t>욕망의 늪 2020</t>
+  </si>
+  <si>
+    <t>드레곤 솔져스 2020</t>
+  </si>
+  <si>
+    <t>이얼리 디파티드 2020</t>
+  </si>
+  <si>
+    <t>해변의 밀프 2020</t>
+  </si>
+  <si>
+    <t>오살 2020</t>
+  </si>
+  <si>
+    <t>라스트 데이스 오브 아메리칸 크라임 2020</t>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -726,15 +748,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D72"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1093,44 +1116,85 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="1:12">
       <c r="B65" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="1:12">
       <c r="B66" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="L66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="B67" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="1:12">
       <c r="B68" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
+    <row r="69" spans="1:12">
       <c r="B69" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="1:12">
       <c r="B70" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
+    <row r="71" spans="1:12">
       <c r="B71" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="1:12">
       <c r="B72" s="2" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" s="6">
+        <v>44203</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="B76" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="B79" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="B80" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1209,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BOOK\영화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7994C7-7210-447C-B392-288D22DE6365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF10EE-7729-419F-A019-4018BC3ACE77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -378,12 +378,135 @@
     <t>`</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>루키스 2019</t>
+  </si>
+  <si>
+    <t>화이트 카운티스 2005</t>
+  </si>
+  <si>
+    <t>엠티맨 2019</t>
+  </si>
+  <si>
+    <t>토니 파커 마지막 슛 2021</t>
+  </si>
+  <si>
+    <t>밤의 문이 열린다 2019</t>
+  </si>
+  <si>
+    <t>클래스 2008</t>
+  </si>
+  <si>
+    <t>그녀의 조각들 2020</t>
+  </si>
+  <si>
+    <t>23 2019</t>
+  </si>
+  <si>
+    <t>딥 이블 악마의 진실 2019</t>
+  </si>
+  <si>
+    <t>아문센 2019</t>
+  </si>
+  <si>
+    <t>발광하는 현대사 2019</t>
+  </si>
+  <si>
+    <t>난폭한 기록 2019</t>
+  </si>
+  <si>
+    <t>8명의 여인들 2002</t>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메멘토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>걸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2018</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>프랑스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이란</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>노르웨이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +552,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -451,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -467,6 +611,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -748,11 +898,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L66" sqref="L66"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1196,6 +1346,125 @@
       <c r="B80" s="2" t="s">
         <v>86</v>
       </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6">
+        <v>44205</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="B85" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="B86" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="B87" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>103</v>
+      </c>
+      <c r="D89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="B90" s="7"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="B91" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="B93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C95" t="s">
+        <v>106</v>
+      </c>
+      <c r="D95" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="B96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1209,7 +1478,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF10EE-7729-419F-A019-4018BC3ACE77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489796F9-9C15-4102-923A-42D998EBBCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="경로" sheetId="2" r:id="rId2"/>
-    <sheet name="넷플렉스" sheetId="3" r:id="rId3"/>
+    <sheet name="인도" sheetId="4" r:id="rId2"/>
+    <sheet name="경로" sheetId="2" r:id="rId3"/>
+    <sheet name="넷플렉스" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -499,6 +500,90 @@
   </si>
   <si>
     <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sye Raa Narasimha Reddy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>War</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>워</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saaho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kabir Singh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카비르 싱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">우리 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uri: The Surgical Strike</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">바라트 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bharat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비길 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bigil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">하우스풀 4 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housefull 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">미션 망갈 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission Mangal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">굿 뉴스 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good Newwz</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사이라 나라시마 레디 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -900,7 +985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
     </sheetView>
@@ -1474,6 +1559,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3543D5-2D38-4369-8EA3-AD2F38AF9D8F}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD5ED5B-4DB2-4DE2-B71A-0B875DFE35C7}">
   <dimension ref="B2:B12"/>
   <sheetViews>
@@ -1539,7 +1766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0A05D4-0D72-4D22-9AFA-DD8A569AB813}">
   <dimension ref="B3:D5"/>
   <sheetViews>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489796F9-9C15-4102-923A-42D998EBBCCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4ADD2-ED77-4B67-96DD-CE059637BEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -249,23 +249,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>https://chocolate0099.blogspot.com/2020/03/5.html</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>  • 5</t>
-    </r>
-  </si>
-  <si>
     <t>개 같은 것들 2020</t>
   </si>
   <si>
@@ -294,9 +277,6 @@
   <si>
     <t>다운</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.naver.com/firstdb/221105223123</t>
   </si>
   <si>
     <t>오늘의 추천</t>
@@ -586,12 +566,89 @@
     <t xml:space="preserve">사이라 나라시마 레디 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>https://blog.naver.com/firstdb/221105223123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림랜드 2020</t>
+  </si>
+  <si>
+    <t>내 안의 변화 2018</t>
+  </si>
+  <si>
+    <t>반딧불이 정원 2008</t>
+  </si>
+  <si>
+    <t>룸메이트 2013</t>
+  </si>
+  <si>
+    <t>리버틴 2004</t>
+  </si>
+  <si>
+    <t>마인드게이머스 2015</t>
+  </si>
+  <si>
+    <r>
+      <t>[출처]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 오늘의 추천 영 호r|</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+      </rPr>
+      <t>작성자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Dotum"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 늘 긍정</t>
+    </r>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://chocolate0099.blogspot.com/2020/03/5.html</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>  • 5</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +714,12 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Dotum"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -983,11 +1046,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -998,13 +1061,13 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
         <v>59</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="2:4">
@@ -1272,38 +1335,38 @@
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:3">
@@ -1323,32 +1386,32 @@
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -1358,40 +1421,40 @@
     </row>
     <row r="66" spans="1:12">
       <c r="B66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L66" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="B67" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="B68" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="B69" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="B70" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="B71" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="B72" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -1404,32 +1467,32 @@
     </row>
     <row r="75" spans="1:12">
       <c r="B75" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="B76" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="B77" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="B78" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="B79" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="B80" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1442,49 +1505,49 @@
     </row>
     <row r="83" spans="1:4">
       <c r="B83" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="B84" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="B85" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="B86" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="B88" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="B89" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1497,59 +1560,105 @@
     </row>
     <row r="92" spans="1:4">
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="B93" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="B94" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="B97" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>105</v>
+      </c>
+      <c r="D97" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4">
-      <c r="B97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" t="s">
-        <v>107</v>
-      </c>
-      <c r="D97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
+    </row>
+    <row r="99" spans="1:4">
       <c r="B99" s="7"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="6">
+        <v>44206</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1562,7 +1671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3543D5-2D38-4369-8EA3-AD2F38AF9D8F}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -1575,13 +1684,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1589,10 +1698,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1600,10 +1709,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1611,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1622,10 +1731,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1633,10 +1742,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1644,10 +1753,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1655,10 +1764,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1666,10 +1775,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1677,10 +1786,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1688,10 +1797,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1814,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1715,12 +1824,12 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="4" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="20.100000000000001" customHeight="1">
@@ -1745,7 +1854,7 @@
     </row>
     <row r="9" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="20.100000000000001" customHeight="1"/>
@@ -1758,7 +1867,7 @@
     <hyperlink ref="B6" r:id="rId2" display="https://chocolate0099.blogspot.com/2020/03/2.html" xr:uid="{90D45DE7-AA6F-4622-922F-45C6EA0E833F}"/>
     <hyperlink ref="B7" r:id="rId3" display="https://chocolate0099.blogspot.com/2020/03/3.html" xr:uid="{E691056C-2897-4114-AC73-C5A8EB67D03B}"/>
     <hyperlink ref="B8" r:id="rId4" display="https://chocolate0099.blogspot.com/2020/03/4.html" xr:uid="{C6F4A05A-5E5A-4AC3-BF7A-F69DC6D36849}"/>
-    <hyperlink ref="B9" r:id="rId5" display="https://chocolate0099.blogspot.com/2020/03/5.html" xr:uid="{10314894-B72B-4D21-B262-7DFE6CADF430}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{10314894-B72B-4D21-B262-7DFE6CADF430}"/>
     <hyperlink ref="B3" r:id="rId6" xr:uid="{79CF119C-50E6-458C-9198-C3F18C9A46B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,18 +1891,18 @@
   <sheetData>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" s="6">
         <v>44218</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" s="6">
         <v>44211</v>
@@ -1801,7 +1910,7 @@
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6">
         <v>44228</v>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D4ADD2-ED77-4B67-96DD-CE059637BEC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B968553-0EC3-43BC-B543-970185875E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -641,6 +641,28 @@
       </rPr>
       <t>  • 5</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금무령 구유 2020</t>
+  </si>
+  <si>
+    <t>울프워커스 2020(자막)</t>
+  </si>
+  <si>
+    <t>더 딥 블루 씨 2011</t>
+  </si>
+  <si>
+    <t>클로즈드 노트 2007</t>
+  </si>
+  <si>
+    <t>어사일럼 2005</t>
+  </si>
+  <si>
+    <t>어거스트 에이트 2012</t>
+  </si>
+  <si>
+    <t>다운</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1046,11 +1068,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1656,7 +1678,57 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="7"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="6">
+        <v>44207</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="B110" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="B112" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4">
+      <c r="B113" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4">
+      <c r="B114" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4">
+      <c r="B115" s="7" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1814,7 +1886,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B968553-0EC3-43BC-B543-970185875E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A612FC9-0195-4A84-B14C-FF83D6EEFF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -589,39 +589,6 @@
     <t>마인드게이머스 2015</t>
   </si>
   <si>
-    <r>
-      <t>[출처]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 오늘의 추천 영 호r|</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-      </rPr>
-      <t>작성자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Dotum"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 늘 긍정</t>
-    </r>
-  </si>
-  <si>
     <t>다운</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -665,12 +632,154 @@
     <t>다운</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>더 베일 2017</t>
+  </si>
+  <si>
+    <t>스카이라인3 2020</t>
+  </si>
+  <si>
+    <t>허니와 클로버 2006</t>
+  </si>
+  <si>
+    <t>붉은 바캉스 검은 웨딩 2011</t>
+  </si>
+  <si>
+    <t>브링 다운 더 하우스 2003</t>
+  </si>
+  <si>
+    <t>런어웨이-72 2015</t>
+  </si>
+  <si>
+    <t>미치고 싶을때 2004</t>
+  </si>
+  <si>
+    <t>더 로프 커스2 2020</t>
+  </si>
+  <si>
+    <t>더 배터리 2012</t>
+  </si>
+  <si>
+    <t>특수부대 백호 2019</t>
+  </si>
+  <si>
+    <t>이비자 2019</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>악마는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사라지지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2020</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아무도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2020</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -736,12 +845,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Dotum"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1068,11 +1171,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1674,7 +1777,7 @@
         <v>133</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1690,46 +1793,125 @@
     </row>
     <row r="109" spans="1:4">
       <c r="B109" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="B110" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="B111" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D111" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="B112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="B113" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D112" t="s">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="B114" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6">
+        <v>44210</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="B117" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="2:4">
-      <c r="B113" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="2:4">
-      <c r="B114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D114" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="2:4">
-      <c r="B115" s="7" t="s">
-        <v>134</v>
+    <row r="118" spans="1:4">
+      <c r="B118" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="B119" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="B120" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="B121" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="B122" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="B123" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="B125" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="B126" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="B127" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="B128" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4">
+      <c r="B129" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4">
+      <c r="B130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C130" t="s">
+        <v>156</v>
+      </c>
+      <c r="D130" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4">
+      <c r="B131" s="2" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +2068,7 @@
   <dimension ref="B2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1926,7 +2108,7 @@
     </row>
     <row r="9" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="20.100000000000001" customHeight="1"/>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A612FC9-0195-4A84-B14C-FF83D6EEFF26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8884088-77A6-4E0D-888D-6F70B3C87433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -772,6 +772,161 @@
   </si>
   <si>
     <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐크 2003</t>
+  </si>
+  <si>
+    <t>해브 어 나이스 데이 2020</t>
+  </si>
+  <si>
+    <t>이트 2014</t>
+  </si>
+  <si>
+    <t>유 다이 죽음의 24시간 2018</t>
+  </si>
+  <si>
+    <t>오피셜 시크릿 2019</t>
+  </si>
+  <si>
+    <t>시크릿 세탁소 2019</t>
+  </si>
+  <si>
+    <t>데어 윌 비 블러드 2007</t>
+  </si>
+  <si>
+    <t>블러드하운드 2021</t>
+  </si>
+  <si>
+    <t>파탈 2021</t>
+  </si>
+  <si>
+    <t>러브컷 2021</t>
+  </si>
+  <si>
+    <t>가베 그녀의 숲 2021</t>
+  </si>
+  <si>
+    <t>조자룡 2020</t>
+  </si>
+  <si>
+    <t>더 게이트 2020</t>
+  </si>
+  <si>
+    <t>당신 없는 일주일 2014</t>
+  </si>
+  <si>
+    <t>헌팅 엠마 2017</t>
+  </si>
+  <si>
+    <t>엽기적인 그녀2 2016</t>
+  </si>
+  <si>
+    <t>컨피던스 맨 JP 2019</t>
+  </si>
+  <si>
+    <t>사일런트 파티 2019</t>
+  </si>
+  <si>
+    <t>부기우기 상위 1%의 섹스 2009</t>
+  </si>
+  <si>
+    <t>라이어트 기계들의 역습 2020</t>
+  </si>
+  <si>
+    <t>나는 사랑과 시간과 죽음을 만났다 2016</t>
+  </si>
+  <si>
+    <t>팔로우 미 2020</t>
+  </si>
+  <si>
+    <t>뱀파이어 바이러스 2020</t>
+  </si>
+  <si>
+    <t>배를린 알렉산더 광장 2020</t>
+  </si>
+  <si>
+    <t>게이트 크래시 2020</t>
+  </si>
+  <si>
+    <t>배트맨 드레곤의 영혼 2020</t>
+  </si>
+  <si>
+    <t>거미숲 2004</t>
+  </si>
+  <si>
+    <t>더 만달로리안 시즌2</t>
+  </si>
+  <si>
+    <t>딥 언더워터 2021</t>
+  </si>
+  <si>
+    <t>호라이즌 라인 2021</t>
+  </si>
+  <si>
+    <t>아웃사이드 더 와이어 2021</t>
+  </si>
+  <si>
+    <t>뉴스 오브 더 월드 2020</t>
+  </si>
+  <si>
+    <t>정글랜드 2019</t>
+  </si>
+  <si>
+    <t>작은새 2019</t>
+  </si>
+  <si>
+    <t>중국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레코닝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2017</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1171,11 +1326,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L131"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1893,12 +2048,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="129" spans="2:4">
+    <row r="129" spans="1:4">
       <c r="B129" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="130" spans="2:4">
+    <row r="130" spans="1:4">
       <c r="B130" s="2" t="s">
         <v>152</v>
       </c>
@@ -1909,10 +2064,253 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="2:4">
+    <row r="131" spans="1:4">
       <c r="B131" s="2" t="s">
         <v>153</v>
       </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6">
+        <v>44215</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="B134" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="B135" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="B136" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="B137" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="B138" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="B139" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="B140" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="B141" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="B142" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="B143" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="B144" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4">
+      <c r="B145" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4">
+      <c r="B146" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4">
+      <c r="B147" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C147" t="s">
+        <v>192</v>
+      </c>
+      <c r="D147" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4">
+      <c r="B148" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4">
+      <c r="B149" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4">
+      <c r="B150" s="7"/>
+    </row>
+    <row r="151" spans="2:4">
+      <c r="B151" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4">
+      <c r="B152" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4">
+      <c r="B153" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4">
+      <c r="B154" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4">
+      <c r="B155" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4">
+      <c r="B156" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4">
+      <c r="B157" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D157" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4">
+      <c r="B158" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D158" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4">
+      <c r="B159" s="7"/>
+    </row>
+    <row r="160" spans="2:4">
+      <c r="B160" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="B161" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="B162" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="B163" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="B164" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4">
+      <c r="B165" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="B166" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="B167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="B168" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4">
+      <c r="B169" s="7"/>
+    </row>
+    <row r="170" spans="2:4">
+      <c r="B170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4">
+      <c r="B172" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="B173" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="B174" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C174" t="s">
+        <v>194</v>
+      </c>
+      <c r="D174" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="B175" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="B176" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/영화/영화.xlsx
+++ b/영화/영화.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\book\영화\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8884088-77A6-4E0D-888D-6F70B3C87433}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA94F46F-4BA6-4027-BDB0-F4170AB0B12A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="231">
   <si>
     <t>3번 초콜릿 영상</t>
   </si>
@@ -926,6 +926,211 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 2017</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본패망하루전 2015</t>
+  </si>
+  <si>
+    <t>보이지 않는 목격자 2019</t>
+  </si>
+  <si>
+    <t>내일 세상의 종말이 올지라도 2019</t>
+  </si>
+  <si>
+    <t>솔리스 2018</t>
+  </si>
+  <si>
+    <t>살인귀를 키우는 여자 2019</t>
+  </si>
+  <si>
+    <t>디파티드 2006(더빙)</t>
+  </si>
+  <si>
+    <t>미스터 노바디 2009</t>
+  </si>
+  <si>
+    <t>변방의 형제들 2019</t>
+  </si>
+  <si>
+    <t>충격과 공포 2017</t>
+  </si>
+  <si>
+    <t>해변의 여인 2006</t>
+  </si>
+  <si>
+    <t>더 도어 2009(더빙)</t>
+  </si>
+  <si>
+    <t>타인의 취향 2000</t>
+  </si>
+  <si>
+    <t>황금화 엄마의 일기 2017</t>
+  </si>
+  <si>
+    <t>공범 2012</t>
+  </si>
+  <si>
+    <t>스턱 인 러브 2012</t>
+  </si>
+  <si>
+    <t>스턱 2017</t>
+  </si>
+  <si>
+    <t>스마일 페이스 킬러 2020</t>
+  </si>
+  <si>
+    <t>진가미후왕 대성무쌍 2020</t>
+  </si>
+  <si>
+    <t>금의위 3인의 무사 2020</t>
+  </si>
+  <si>
+    <t>모든 걸 걸었어 2020</t>
+  </si>
+  <si>
+    <t>인랜드 엠파이어 2006</t>
+  </si>
+  <si>
+    <t>어 밀리언 리틀 피시즈 2018</t>
+  </si>
+  <si>
+    <t>리뎀션 데이 2021</t>
+  </si>
+  <si>
+    <t>천사는 바이러스 2021</t>
+  </si>
+  <si>
+    <t>바이크 원정대 인 이탈리아 2020</t>
+  </si>
+  <si>
+    <t>썸머 85 2020</t>
+  </si>
+  <si>
+    <t>도쿄 소나타 2008</t>
+  </si>
+  <si>
+    <t>순천부 살인가면 2019</t>
+  </si>
+  <si>
+    <t>일본</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밀정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 1930 2017</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍콩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각오는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>됐나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>거기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2018</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1326,11 +1531,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2304,13 +2509,248 @@
         <v>190</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
+    <row r="178" spans="1:4">
+      <c r="A178" s="6">
+        <v>44225</v>
+      </c>
       <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="B179" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="B180" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D180" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="B181" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="B182" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C182" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="B183" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C183" t="s">
+        <v>225</v>
+      </c>
+      <c r="D183" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="B184" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="B185" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="B186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="B187" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="B188" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="B189" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="B190" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="B191" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="B192" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4">
+      <c r="B193" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4">
+      <c r="B194" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4">
+      <c r="B195" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4">
+      <c r="B196" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4">
+      <c r="B197" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C197" t="s">
+        <v>228</v>
+      </c>
+      <c r="D197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4">
+      <c r="B198" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4">
+      <c r="B199" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4">
+      <c r="B200" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4">
+      <c r="B201" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C201" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4">
+      <c r="B202" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4">
+      <c r="B203" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4">
+      <c r="B204" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4">
+      <c r="B205" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4">
+      <c r="B206" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4">
+      <c r="B207" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4">
+      <c r="B208" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="2" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
